--- a/alao_p0/P0_Hello_to_RoSA/vendor.xlsx
+++ b/alao_p0/P0_Hello_to_RoSA/vendor.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revature\Reeves_B-P0\P0_Hello_to_RoSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7DBE97A-5A9B-48E3-91E8-E9D72034FE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26352693-1599-4746-86C9-E6A900E2E37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vendor_Bob" sheetId="1" r:id="rId1"/>
-    <sheet name="Vendor_Sup" sheetId="2" r:id="rId2"/>
-    <sheet name="Vendor_grocery" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>keyboard</t>
   </si>
@@ -63,6 +61,36 @@
   </si>
   <si>
     <t>camera</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>PS5</t>
+  </si>
+  <si>
+    <t>PS4</t>
+  </si>
+  <si>
+    <t>headphone</t>
+  </si>
+  <si>
+    <t>Pajama</t>
+  </si>
+  <si>
+    <t>Shoes</t>
   </si>
 </sst>
 </file>
@@ -381,69 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>150</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>300</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5615A4-F9E5-4D21-8A2A-DE94143692EA}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,97 +433,211 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>150</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>500</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>399</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>299</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B15">
         <v>120</v>
       </c>
-      <c r="C4">
+      <c r="C15">
         <v>50</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94FD8CA-2747-4092-9504-342061355A3F}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="C26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>300</v>
+      <c r="C28">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
